--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H2">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I2">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J2">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01333166666666667</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N2">
-        <v>0.039995</v>
+        <v>2.031179</v>
       </c>
       <c r="O2">
-        <v>0.003064994513357115</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P2">
-        <v>0.004188487926012003</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q2">
-        <v>0.5536412528583333</v>
+        <v>29.76554614053377</v>
       </c>
       <c r="R2">
-        <v>4.982771275725</v>
+        <v>267.889915264804</v>
       </c>
       <c r="S2">
-        <v>0.0004225607170227283</v>
+        <v>0.07914069121781948</v>
       </c>
       <c r="T2">
-        <v>0.0006112670576872762</v>
+        <v>0.09131928808413101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H3">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I3">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J3">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6770596666666666</v>
+        <v>0.165466</v>
       </c>
       <c r="N3">
-        <v>2.031179</v>
+        <v>0.496398</v>
       </c>
       <c r="O3">
-        <v>0.1556582695498485</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P3">
-        <v>0.2127158074026537</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q3">
-        <v>28.11712679933833</v>
+        <v>7.274374918738665</v>
       </c>
       <c r="R3">
-        <v>253.054141194045</v>
+        <v>65.469374268648</v>
       </c>
       <c r="S3">
-        <v>0.02146009387777243</v>
+        <v>0.01934112199818094</v>
       </c>
       <c r="T3">
-        <v>0.03104370073674669</v>
+        <v>0.02231743827914057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H4">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I4">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J4">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.159092</v>
+        <v>0.178807</v>
       </c>
       <c r="N4">
-        <v>0.477276</v>
+        <v>0.357614</v>
       </c>
       <c r="O4">
-        <v>0.03657578000642656</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P4">
-        <v>0.04998286694275046</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q4">
-        <v>6.606817917220001</v>
+        <v>7.860884750310665</v>
       </c>
       <c r="R4">
-        <v>59.46136125498001</v>
+        <v>47.16530850186399</v>
       </c>
       <c r="S4">
-        <v>0.005042582542261275</v>
+        <v>0.02090053546425694</v>
       </c>
       <c r="T4">
-        <v>0.007294489216770907</v>
+        <v>0.01607788180604389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.528285</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H5">
-        <v>124.584855</v>
+        <v>216.066395</v>
       </c>
       <c r="I5">
-        <v>0.137866712381124</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J5">
-        <v>0.145939792231724</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.500171</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N5">
-        <v>7.000342</v>
+        <v>2.031179</v>
       </c>
       <c r="O5">
-        <v>0.8047009559303677</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P5">
-        <v>0.7331128377285839</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q5">
-        <v>145.356098836735</v>
+        <v>48.76328045885611</v>
       </c>
       <c r="R5">
-        <v>872.13659302041</v>
+        <v>438.869524129705</v>
       </c>
       <c r="S5">
-        <v>0.1109414752440675</v>
+        <v>0.1296519036923358</v>
       </c>
       <c r="T5">
-        <v>0.1069903352205191</v>
+        <v>0.1496034386577428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>216.066395</v>
       </c>
       <c r="I6">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J6">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01333166666666667</v>
+        <v>0.165466</v>
       </c>
       <c r="N6">
-        <v>0.039995</v>
+        <v>0.496398</v>
       </c>
       <c r="O6">
-        <v>0.003064994513357115</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P6">
-        <v>0.004188487926012003</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q6">
-        <v>0.9601750520027776</v>
+        <v>11.91721403835667</v>
       </c>
       <c r="R6">
-        <v>8.641575468025</v>
+        <v>107.25492634521</v>
       </c>
       <c r="S6">
-        <v>0.0007328432560740713</v>
+        <v>0.03168551156203767</v>
       </c>
       <c r="T6">
-        <v>0.001060114967720168</v>
+        <v>0.03656144915973737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>216.066395</v>
       </c>
       <c r="I7">
-        <v>0.2391010009578718</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J7">
-        <v>0.2531020708300187</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.6770596666666666</v>
+        <v>0.178807</v>
       </c>
       <c r="N7">
-        <v>2.031179</v>
+        <v>0.357614</v>
       </c>
       <c r="O7">
-        <v>0.1556582695498485</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P7">
-        <v>0.2127158074026537</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q7">
-        <v>48.76328045885611</v>
+        <v>12.87806129692167</v>
       </c>
       <c r="R7">
-        <v>438.869524129705</v>
+        <v>77.26836778153</v>
       </c>
       <c r="S7">
-        <v>0.03721804805673899</v>
+        <v>0.03424021409759872</v>
       </c>
       <c r="T7">
-        <v>0.05383881135189106</v>
+        <v>0.02633952207666091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.02213166666667</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H8">
-        <v>216.066395</v>
+        <v>225.82763</v>
       </c>
       <c r="I8">
-        <v>0.2391010009578718</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J8">
-        <v>0.2531020708300187</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.159092</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N8">
-        <v>0.477276</v>
+        <v>2.031179</v>
       </c>
       <c r="O8">
-        <v>0.03657578000642656</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P8">
-        <v>0.04998286694275046</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q8">
-        <v>11.45814497111333</v>
+        <v>50.96625996397444</v>
       </c>
       <c r="R8">
-        <v>103.12330474002</v>
+        <v>458.69633967577</v>
       </c>
       <c r="S8">
-        <v>0.008745305610351506</v>
+        <v>0.1355091898294894</v>
       </c>
       <c r="T8">
-        <v>0.01265076712923143</v>
+        <v>0.1563620756107327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.02213166666667</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H9">
-        <v>216.066395</v>
+        <v>225.82763</v>
       </c>
       <c r="I9">
-        <v>0.2391010009578718</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J9">
-        <v>0.2531020708300187</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.500171</v>
+        <v>0.165466</v>
       </c>
       <c r="N9">
-        <v>7.000342</v>
+        <v>0.496398</v>
       </c>
       <c r="O9">
-        <v>0.8047009559303677</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P9">
-        <v>0.7331128377285839</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q9">
-        <v>252.0897766178483</v>
+        <v>12.45559820852667</v>
       </c>
       <c r="R9">
-        <v>1512.53865970709</v>
+        <v>112.10038387674</v>
       </c>
       <c r="S9">
-        <v>0.1924048040347072</v>
+        <v>0.03311696842719371</v>
       </c>
       <c r="T9">
-        <v>0.185552377381176</v>
+        <v>0.03821318633612128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.33487700000001</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H10">
-        <v>196.004631</v>
+        <v>225.82763</v>
       </c>
       <c r="I10">
-        <v>0.2169004738773853</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J10">
-        <v>0.2296015444621718</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.01333166666666667</v>
+        <v>0.178807</v>
       </c>
       <c r="N10">
-        <v>0.039995</v>
+        <v>0.357614</v>
       </c>
       <c r="O10">
-        <v>0.003064994513357115</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P10">
-        <v>0.004188487926012003</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q10">
-        <v>0.8710228018716667</v>
+        <v>13.45985367913667</v>
       </c>
       <c r="R10">
-        <v>7.839205216844999</v>
+        <v>80.75912207482</v>
       </c>
       <c r="S10">
-        <v>0.0006647987623787441</v>
+        <v>0.03578708480026849</v>
       </c>
       <c r="T10">
-        <v>0.0009616832967735147</v>
+        <v>0.02752946308890381</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.33487700000001</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H11">
-        <v>196.004631</v>
+        <v>175.996674</v>
       </c>
       <c r="I11">
-        <v>0.2169004738773853</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J11">
-        <v>0.2296015444621718</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1122,27 +1122,27 @@
         <v>2.031179</v>
       </c>
       <c r="O11">
-        <v>0.1556582695498485</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P11">
-        <v>0.2127158074026537</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q11">
-        <v>44.23561004332767</v>
+        <v>59.58012471644099</v>
       </c>
       <c r="R11">
-        <v>398.120490389949</v>
+        <v>357.4807482986459</v>
       </c>
       <c r="S11">
-        <v>0.03376235242829592</v>
+        <v>0.1584117499689349</v>
       </c>
       <c r="T11">
-        <v>0.04883987791116717</v>
+        <v>0.1218593369076471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.33487700000001</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H12">
-        <v>196.004631</v>
+        <v>175.996674</v>
       </c>
       <c r="I12">
-        <v>0.2169004738773853</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J12">
-        <v>0.2296015444621718</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.159092</v>
+        <v>0.165466</v>
       </c>
       <c r="N12">
-        <v>0.477276</v>
+        <v>0.496398</v>
       </c>
       <c r="O12">
-        <v>0.03657578000642656</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P12">
-        <v>0.04998286694275046</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q12">
-        <v>10.394256251684</v>
+        <v>14.560732830042</v>
       </c>
       <c r="R12">
-        <v>93.54830626515601</v>
+        <v>87.364396980252</v>
       </c>
       <c r="S12">
-        <v>0.007933304015828915</v>
+        <v>0.03871410439999595</v>
       </c>
       <c r="T12">
-        <v>0.01147614344670274</v>
+        <v>0.02978109320856616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.33487700000001</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H13">
-        <v>196.004631</v>
+        <v>175.996674</v>
       </c>
       <c r="I13">
-        <v>0.2169004738773853</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J13">
-        <v>0.2296015444621718</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>3.500171</v>
+        <v>0.178807</v>
       </c>
       <c r="N13">
-        <v>7.000342</v>
+        <v>0.357614</v>
       </c>
       <c r="O13">
-        <v>0.8047009559303677</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P13">
-        <v>0.7331128377285839</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q13">
-        <v>228.683241763967</v>
+        <v>15.734718643959</v>
       </c>
       <c r="R13">
-        <v>1372.099450583802</v>
+        <v>62.93887457583599</v>
       </c>
       <c r="S13">
-        <v>0.1745400186708817</v>
+        <v>0.04183550013567787</v>
       </c>
       <c r="T13">
-        <v>0.1683238398075284</v>
+        <v>0.02145483234559401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>88.99412</v>
+      </c>
+      <c r="H14">
+        <v>266.98236</v>
+      </c>
+      <c r="I14">
+        <v>0.24166542440621</v>
+      </c>
+      <c r="J14">
+        <v>0.2625809944389785</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>49.988644</v>
-      </c>
-      <c r="H14">
-        <v>99.977288</v>
-      </c>
-      <c r="I14">
-        <v>0.1659536386987904</v>
-      </c>
-      <c r="J14">
-        <v>0.1171142723456333</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01333166666666667</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N14">
-        <v>0.039995</v>
+        <v>2.031179</v>
       </c>
       <c r="O14">
-        <v>0.003064994513357115</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P14">
-        <v>0.004188487926012003</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q14">
-        <v>0.6664319389266666</v>
+        <v>60.25432922249333</v>
       </c>
       <c r="R14">
-        <v>3.99859163356</v>
+        <v>542.2889630024399</v>
       </c>
       <c r="S14">
-        <v>0.0005086469920834416</v>
+        <v>0.1602043262038621</v>
       </c>
       <c r="T14">
-        <v>0.0004905317156833664</v>
+        <v>0.1848574329060259</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.988644</v>
+        <v>88.99412</v>
       </c>
       <c r="H15">
-        <v>99.977288</v>
+        <v>266.98236</v>
       </c>
       <c r="I15">
-        <v>0.1659536386987904</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J15">
-        <v>0.1171142723456333</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.6770596666666666</v>
+        <v>0.165466</v>
       </c>
       <c r="N15">
-        <v>2.031179</v>
+        <v>0.496398</v>
       </c>
       <c r="O15">
-        <v>0.1556582695498485</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P15">
-        <v>0.2127158074026537</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q15">
-        <v>33.84529464375866</v>
+        <v>14.72550105992</v>
       </c>
       <c r="R15">
-        <v>203.071767862552</v>
+        <v>132.52950953928</v>
       </c>
       <c r="S15">
-        <v>0.02583205622535449</v>
+        <v>0.03915219048589256</v>
       </c>
       <c r="T15">
-        <v>0.02491205700037566</v>
+        <v>0.04517714095098731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.988644</v>
+        <v>88.99412</v>
       </c>
       <c r="H16">
-        <v>99.977288</v>
+        <v>266.98236</v>
       </c>
       <c r="I16">
-        <v>0.1659536386987904</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J16">
-        <v>0.1171142723456333</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.159092</v>
+        <v>0.178807</v>
       </c>
       <c r="N16">
-        <v>0.477276</v>
+        <v>0.357614</v>
       </c>
       <c r="O16">
-        <v>0.03657578000642656</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P16">
-        <v>0.04998286694275046</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q16">
-        <v>7.952793351248</v>
+        <v>15.91277161484</v>
       </c>
       <c r="R16">
-        <v>47.71676010748801</v>
+        <v>95.47662968903998</v>
       </c>
       <c r="S16">
-        <v>0.006069883780312956</v>
+        <v>0.04230890771645529</v>
       </c>
       <c r="T16">
-        <v>0.005853707091748828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>49.988644</v>
-      </c>
-      <c r="H17">
-        <v>99.977288</v>
-      </c>
-      <c r="I17">
-        <v>0.1659536386987904</v>
-      </c>
-      <c r="J17">
-        <v>0.1171142723456333</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.500171</v>
-      </c>
-      <c r="N17">
-        <v>7.000342</v>
-      </c>
-      <c r="O17">
-        <v>0.8047009559303677</v>
-      </c>
-      <c r="P17">
-        <v>0.7331128377285839</v>
-      </c>
-      <c r="Q17">
-        <v>174.968802058124</v>
-      </c>
-      <c r="R17">
-        <v>699.875208232496</v>
-      </c>
-      <c r="S17">
-        <v>0.1335430517010395</v>
-      </c>
-      <c r="T17">
-        <v>0.08585797653782544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H18">
-        <v>217.039795</v>
-      </c>
-      <c r="I18">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J18">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.01333166666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.039995</v>
-      </c>
-      <c r="O18">
-        <v>0.003064994513357115</v>
-      </c>
-      <c r="P18">
-        <v>0.004188487926012003</v>
-      </c>
-      <c r="Q18">
-        <v>0.9645007334472223</v>
-      </c>
-      <c r="R18">
-        <v>8.680506601025</v>
-      </c>
-      <c r="S18">
-        <v>0.0007361447857981292</v>
-      </c>
-      <c r="T18">
-        <v>0.001064890888147678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H19">
-        <v>217.039795</v>
-      </c>
-      <c r="I19">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J19">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.6770596666666666</v>
-      </c>
-      <c r="N19">
-        <v>2.031179</v>
-      </c>
-      <c r="O19">
-        <v>0.1556582695498485</v>
-      </c>
-      <c r="P19">
-        <v>0.2127158074026537</v>
-      </c>
-      <c r="Q19">
-        <v>48.9829637520339</v>
-      </c>
-      <c r="R19">
-        <v>440.846673768305</v>
-      </c>
-      <c r="S19">
-        <v>0.03738571896168667</v>
-      </c>
-      <c r="T19">
-        <v>0.05408136040247309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H20">
-        <v>217.039795</v>
-      </c>
-      <c r="I20">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J20">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.159092</v>
-      </c>
-      <c r="N20">
-        <v>0.477276</v>
-      </c>
-      <c r="O20">
-        <v>0.03657578000642656</v>
-      </c>
-      <c r="P20">
-        <v>0.04998286694275046</v>
-      </c>
-      <c r="Q20">
-        <v>11.50976502204667</v>
-      </c>
-      <c r="R20">
-        <v>103.58788519842</v>
-      </c>
-      <c r="S20">
-        <v>0.008784704057671908</v>
-      </c>
-      <c r="T20">
-        <v>0.01270776005829656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H21">
-        <v>217.039795</v>
-      </c>
-      <c r="I21">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J21">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.500171</v>
-      </c>
-      <c r="N21">
-        <v>7.000342</v>
-      </c>
-      <c r="O21">
-        <v>0.8047009559303677</v>
-      </c>
-      <c r="P21">
-        <v>0.7331128377285839</v>
-      </c>
-      <c r="Q21">
-        <v>253.2254654349817</v>
-      </c>
-      <c r="R21">
-        <v>1519.35279260989</v>
-      </c>
-      <c r="S21">
-        <v>0.1932716062796717</v>
-      </c>
-      <c r="T21">
-        <v>0.1863883087815349</v>
+        <v>0.03254642058196523</v>
       </c>
     </row>
   </sheetData>
